--- a/Compression results.xlsx
+++ b/Compression results.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdel/PycharmProjects/cor-space-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9293C17F-A016-C843-A530-1A4BAAB0FD21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BAAD2B-FE22-6F40-B38D-738BCD08337B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44240" yWindow="7840" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{EA6EA9B5-B5A8-E14B-A1A8-570F267023DC}"/>
+    <workbookView xWindow="44200" yWindow="7820" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{EA6EA9B5-B5A8-E14B-A1A8-570F267023DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Baslines " sheetId="5" r:id="rId1"/>
+    <sheet name="Baselines " sheetId="5" r:id="rId1"/>
     <sheet name="Datasets" sheetId="4" r:id="rId2"/>
     <sheet name="algo vs. algo" sheetId="6" r:id="rId3"/>
     <sheet name="sparsity level" sheetId="10" r:id="rId4"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>Regression (Eichinger et. al 2015)</t>
   </si>
@@ -180,12 +180,51 @@
   </si>
   <si>
     <t>Paramters</t>
+  </si>
+  <si>
+    <t>Threshold correlation</t>
+  </si>
+  <si>
+    <t>Nb atoms used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tricklet length </t>
+  </si>
+  <si>
+    <t>Ts Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nb Ts </t>
+  </si>
+  <si>
+    <t>CinCECGTorso (test)</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Compression ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error </t>
+  </si>
+  <si>
+    <t>Matching pursuit algorithm</t>
+  </si>
+  <si>
+    <t>Comperssion time</t>
+  </si>
+  <si>
+    <t>Reconstruction time</t>
+  </si>
+  <si>
+    <t>Dictionary size</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -195,7 +234,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -205,50 +244,74 @@
     </r>
   </si>
   <si>
-    <t>Threshold correlation</t>
-  </si>
-  <si>
-    <t>Nb atoms used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tricklet length </t>
-  </si>
-  <si>
-    <t>Ts Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nb Ts </t>
-  </si>
-  <si>
-    <t>CinCECGTorso (test)</t>
-  </si>
-  <si>
-    <t>Algorithm</t>
-  </si>
-  <si>
-    <t>Compression ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error </t>
-  </si>
-  <si>
-    <t>Matching pursuit algorithm</t>
-  </si>
-  <si>
-    <t>Comperssion time</t>
-  </si>
-  <si>
-    <t>Reconstruction time</t>
-  </si>
-  <si>
-    <t>Dictionary size</t>
+    <t>sparsity level</t>
+  </si>
+  <si>
+    <t>correlation threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference </t>
+  </si>
+  <si>
+    <t>TRISTAN</t>
+  </si>
+  <si>
+    <t>Compression time</t>
+  </si>
+  <si>
+    <t>Yoga</t>
+  </si>
+  <si>
+    <t>Dim</t>
+  </si>
+  <si>
+    <t>3000 * 426</t>
+  </si>
+  <si>
+    <t>2 weeks</t>
+  </si>
+  <si>
+    <t>omp</t>
+  </si>
+  <si>
+    <t>Our technique</t>
+  </si>
+  <si>
+    <t>Learning dictionary para</t>
+  </si>
+  <si>
+    <t>53 variables from train</t>
+  </si>
+  <si>
+    <t>* initial size/ new size</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (tristan vs. ours)</t>
+  </si>
+  <si>
+    <t>MSE Tristan</t>
+  </si>
+  <si>
+    <t>MSE ours</t>
+  </si>
+  <si>
+    <t>Compression ratio Tristan</t>
+  </si>
+  <si>
+    <t>Compression ratio ours</t>
+  </si>
+  <si>
+    <t>Comp%Reconst time Tristan</t>
+  </si>
+  <si>
+    <t>Comp%Reconst time ours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,20 +336,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +388,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,11 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,7 +473,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -703,53 +809,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1F3C3F-3BD3-A14E-B668-D1F985F2737F}">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="23"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="23"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="23"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="23"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="23"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="25" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{3C92EF5D-73E5-6B46-9100-1D4D7A643FC6}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{3C92EF5D-73E5-6B46-9100-1D4D7A643FC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -760,7 +885,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,129 +894,129 @@
     <col min="2" max="2" width="14.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="64.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="7" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>53</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>811</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <f t="shared" ref="E2:E7" si="0">B2*C2</f>
         <v>42983</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>3000</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>426</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <f t="shared" si="0"/>
         <v>1278000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="10">
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="8">
         <v>1380</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>1639</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <f t="shared" si="0"/>
         <v>2261820</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>208</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>2000</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12">
+      <c r="D5" s="11"/>
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
         <v>416000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>29</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>19735</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <f t="shared" si="0"/>
         <v>572315</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>15</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>295719</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>4435785</v>
       </c>
@@ -906,10 +1031,10 @@
       <c r="C8" s="2">
         <v>945</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <f t="shared" ref="E8:E12" si="1">B8*C8</f>
         <v>3384990</v>
       </c>
@@ -924,10 +1049,10 @@
       <c r="C9" s="2">
         <v>152</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <f t="shared" si="1"/>
         <v>936928</v>
       </c>
@@ -942,10 +1067,10 @@
       <c r="C10" s="2">
         <v>128</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <f t="shared" si="1"/>
         <v>512000</v>
       </c>
@@ -963,7 +1088,7 @@
       <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <f t="shared" si="1"/>
         <v>8433664</v>
       </c>
@@ -981,22 +1106,22 @@
       <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <f t="shared" si="1"/>
         <v>146000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>119</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <v>3000</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <f t="shared" ref="E13:E21" si="2">B13*C13</f>
         <v>357000</v>
       </c>
@@ -1011,7 +1136,7 @@
       <c r="C14" s="2">
         <v>1500</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
@@ -1026,10 +1151,10 @@
       <c r="C15" s="2">
         <v>3850505</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <f t="shared" si="2"/>
         <v>200226260</v>
       </c>
@@ -1044,10 +1169,10 @@
       <c r="C16" s="2">
         <v>63000000</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <f t="shared" si="2"/>
         <v>756000000</v>
       </c>
@@ -1062,25 +1187,25 @@
       <c r="C17" s="2">
         <v>52854</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <f t="shared" si="2"/>
         <v>4545444</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="12">
         <v>13</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="12">
         <v>43824</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="14">
         <f t="shared" si="2"/>
         <v>569712</v>
       </c>
@@ -1095,10 +1220,10 @@
       <c r="C19" s="2">
         <v>140000</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <f t="shared" si="2"/>
         <v>10780000</v>
       </c>
@@ -1113,10 +1238,10 @@
       <c r="C20" s="2">
         <v>230318</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <f t="shared" si="2"/>
         <v>2994134</v>
       </c>
@@ -1131,10 +1256,10 @@
       <c r="C21" s="2">
         <v>4095000</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <f t="shared" si="2"/>
         <v>81900000</v>
       </c>
@@ -1165,168 +1290,119 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="20" style="20" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="20"/>
-    <col min="4" max="4" width="17" style="20" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="20"/>
+    <col min="1" max="1" width="17.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="19" customWidth="1"/>
+    <col min="3" max="4" width="12.5" style="19" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="21"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>100</v>
+      </c>
+      <c r="C8" s="21"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="19" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1335,85 +1411,269 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F24F4C8-E6FE-784E-B1A1-5B7567BD0581}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="17.1640625" style="19" customWidth="1"/>
+    <col min="2" max="4" width="17" style="19" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="19"/>
+    <col min="6" max="6" width="20.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="21">
+        <v>14</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="B7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="21" t="s">
         <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>100</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="19">
+        <v>1</v>
+      </c>
+      <c r="B13" s="19">
+        <v>7.9</v>
+      </c>
+      <c r="C13" s="19">
+        <v>6.61</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1.8269</v>
+      </c>
+      <c r="E13" s="19">
+        <v>2.0186999999999999</v>
+      </c>
+      <c r="F13" s="19">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G13" s="19">
+        <v>41.76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="19">
+        <v>2</v>
+      </c>
+      <c r="B14" s="19">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C14" s="19">
+        <v>5.95</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.68108999999999997</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0.80971000000000004</v>
+      </c>
+      <c r="F14" s="19">
+        <v>15.5</v>
+      </c>
+      <c r="G14" s="19">
+        <v>43.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="19">
+        <v>3</v>
+      </c>
+      <c r="B15" s="19">
+        <v>2.7</v>
+      </c>
+      <c r="C15" s="19">
+        <v>5.67</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.25777</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.34228999999999998</v>
+      </c>
+      <c r="F15" s="19">
+        <v>22.18</v>
+      </c>
+      <c r="G15" s="19">
+        <v>51.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="19">
+        <v>4</v>
+      </c>
+      <c r="B16" s="19">
+        <v>1.63</v>
+      </c>
+      <c r="C16" s="19">
+        <v>4.76</v>
+      </c>
+      <c r="D16" s="19">
+        <v>4.8591000000000002E-2</v>
+      </c>
+      <c r="E16" s="19">
+        <v>9.0674000000000005E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="19">
+        <v>6</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1.35</v>
+      </c>
+      <c r="C18" s="19">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1426,23 +1686,23 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
+      <c r="B1" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1450,80 +1710,80 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="1"/>
+      <c r="A3" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="21"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="1"/>
+      <c r="A4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="21"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1"/>
+      <c r="A5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="21"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="1"/>
+      <c r="A6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="21"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="1"/>
+      <c r="A7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="21"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="1"/>
+      <c r="A8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="21"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="1"/>
+      <c r="A9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="21"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1554,29 +1814,29 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1602,12 +1862,149 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6D6955-E421-5547-BE42-EC892646D32C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Compression results.xlsx
+++ b/Compression results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdel/PycharmProjects/cor-space-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BAAD2B-FE22-6F40-B38D-738BCD08337B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B4F5D9-13C6-1C45-A340-9BBA5FA5C98F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44200" yWindow="7820" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{EA6EA9B5-B5A8-E14B-A1A8-570F267023DC}"/>
+    <workbookView xWindow="44200" yWindow="7720" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{EA6EA9B5-B5A8-E14B-A1A8-570F267023DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Baselines " sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="algo vs. algo" sheetId="6" r:id="rId3"/>
     <sheet name="sparsity level" sheetId="10" r:id="rId4"/>
     <sheet name="correaltion threshold" sheetId="11" r:id="rId5"/>
-    <sheet name="tricklet size" sheetId="12" r:id="rId6"/>
+    <sheet name="tricklet length" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
   <si>
     <t>Regression (Eichinger et. al 2015)</t>
   </si>
@@ -191,12 +191,6 @@
     <t xml:space="preserve">Tricklet length </t>
   </si>
   <si>
-    <t>Ts Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nb Ts </t>
-  </si>
-  <si>
     <t>CinCECGTorso (test)</t>
   </si>
   <si>
@@ -210,9 +204,6 @@
   </si>
   <si>
     <t>Matching pursuit algorithm</t>
-  </si>
-  <si>
-    <t>Comperssion time</t>
   </si>
   <si>
     <t>Reconstruction time</t>
@@ -286,32 +277,41 @@
     <t>* initial size/ new size</t>
   </si>
   <si>
-    <t xml:space="preserve"> (tristan vs. ours)</t>
-  </si>
-  <si>
     <t>MSE Tristan</t>
   </si>
   <si>
     <t>MSE ours</t>
   </si>
   <si>
-    <t>Compression ratio Tristan</t>
-  </si>
-  <si>
-    <t>Compression ratio ours</t>
-  </si>
-  <si>
     <t>Comp%Reconst time Tristan</t>
   </si>
   <si>
     <t>Comp%Reconst time ours</t>
+  </si>
+  <si>
+    <t>Compression ratio Tristan*</t>
+  </si>
+  <si>
+    <t>Compression ratio ours*</t>
+  </si>
+  <si>
+    <t>PigAirwayPressure_TRAIN</t>
+  </si>
+  <si>
+    <t>207, 2001</t>
+  </si>
+  <si>
+    <t>ACSF1_TRAIN</t>
+  </si>
+  <si>
+    <t>(99, 1461)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -346,6 +346,13 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -426,11 +433,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -485,14 +489,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -811,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1F3C3F-3BD3-A14E-B668-D1F985F2737F}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -822,53 +847,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>64</v>
+      <c r="A1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>65</v>
+      <c r="A2" s="23" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="22"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="22"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="22"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="22"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="22"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>6</v>
       </c>
     </row>
@@ -885,381 +910,381 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="64.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="38" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="64.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>53</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>811</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <f t="shared" ref="E2:E7" si="0">B2*C2</f>
         <v>42983</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>3000</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>426</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <f t="shared" si="0"/>
         <v>1278000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="8">
+    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="7">
         <v>1380</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>1639</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <f t="shared" si="0"/>
         <v>2261820</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>208</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>2000</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10">
+      <c r="D5" s="10"/>
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>416000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>29</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>19735</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <f t="shared" si="0"/>
         <v>572315</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>15</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>295719</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>4435785</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>3582</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>945</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <f t="shared" ref="E8:E12" si="1">B8*C8</f>
         <v>3384990</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>6164</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>152</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f t="shared" si="1"/>
         <v>936928</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>4000</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>128</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <f t="shared" si="1"/>
         <v>512000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>8236</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1024</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <f t="shared" si="1"/>
         <v>8433664</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>100</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>1460</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f t="shared" si="1"/>
         <v>146000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>119</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>3000</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <f t="shared" ref="E13:E21" si="2">B13*C13</f>
         <v>357000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>600</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>1500</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>52</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>3850505</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f t="shared" si="2"/>
         <v>200226260</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>63000000</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f t="shared" si="2"/>
         <v>756000000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>86</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>52854</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <f t="shared" si="2"/>
         <v>4545444</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>13</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>43824</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <f t="shared" si="2"/>
         <v>569712</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>77</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>140000</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <f t="shared" si="2"/>
         <v>10780000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>13</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>230318</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <f t="shared" si="2"/>
         <v>2994134</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>20</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>4095000</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <f t="shared" si="2"/>
         <v>81900000</v>
       </c>
@@ -1279,6 +1304,7 @@
     <hyperlink ref="D7" r:id="rId11" xr:uid="{F586B74C-69C3-234C-A172-1C832FB93153}"/>
     <hyperlink ref="D10" r:id="rId12" xr:uid="{62C32C0C-4948-094F-8DC8-89B612203487}"/>
     <hyperlink ref="D9" r:id="rId13" xr:uid="{C792C2CF-CA01-1944-ACE2-ED5FB859DBB8}"/>
+    <hyperlink ref="D4" r:id="rId14" xr:uid="{F6C3274B-8834-F944-B79C-20474B09A6BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1289,119 +1315,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94416DE-30B7-E345-8186-BD11BDED46A2}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="19" customWidth="1"/>
-    <col min="3" max="4" width="12.5" style="19" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="19"/>
+    <col min="1" max="1" width="17.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="18" customWidth="1"/>
+    <col min="3" max="4" width="12.5" style="18" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="21"/>
+      <c r="B1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="21"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="20">
+        <v>100</v>
+      </c>
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="21"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="21"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="21">
-        <v>0.95</v>
-      </c>
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="21">
-        <v>100</v>
-      </c>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="19" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="19" t="s">
-        <v>65</v>
+      <c r="B16" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1413,267 +1439,410 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F24F4C8-E6FE-784E-B1A1-5B7567BD0581}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="19" customWidth="1"/>
-    <col min="2" max="4" width="17" style="19" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="19"/>
-    <col min="6" max="6" width="20.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="19"/>
+    <col min="1" max="1" width="17.1640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="17" style="18" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="18"/>
+    <col min="6" max="6" width="20.6640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="20">
+        <v>14</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="21">
-        <v>14</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="21">
-        <v>0.95</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B8" s="20">
+        <v>100</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="21">
-        <v>100</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="E12" s="17" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>82</v>
+      <c r="F12" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>1</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>7.9</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <v>6.61</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>1.8269</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>2.0186999999999999</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>9.7799999999999994</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <v>41.76</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>2</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>5.95</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>0.68108999999999997</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>0.80971000000000004</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>15.5</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <v>43.72</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>3</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>2.7</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>5.67</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>0.25777</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>0.34228999999999998</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>22.18</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="18">
         <v>51.27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <v>4</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C16" s="18">
+        <v>5.17</v>
+      </c>
+      <c r="D16" s="18">
+        <v>9.9419999999999994E-2</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.15548000000000001</v>
+      </c>
+      <c r="F16" s="18">
+        <v>27.83</v>
+      </c>
+      <c r="G16" s="18">
+        <v>56.62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="18">
+        <v>5</v>
+      </c>
+      <c r="B17" s="18">
         <v>1.63</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C17" s="18">
         <v>4.76</v>
       </c>
-      <c r="D16" s="19">
-        <v>4.8591000000000002E-2</v>
-      </c>
-      <c r="E16" s="19">
-        <v>9.0674000000000005E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="19">
+      <c r="D17" s="18">
+        <v>5.0294999999999999E-2</v>
+      </c>
+      <c r="E17" s="18">
+        <v>9.2800999999999995E-2</v>
+      </c>
+      <c r="F17" s="18">
+        <v>32.68</v>
+      </c>
+      <c r="G17" s="18">
+        <v>60.77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="18">
         <v>6</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>1.35</v>
       </c>
-      <c r="C18" s="19">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="19">
+      <c r="C18" s="18">
+        <v>4.41</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2.0784E-2</v>
+      </c>
+      <c r="E18" s="18">
+        <v>5.1355999999999999E-2</v>
+      </c>
+      <c r="F18" s="18">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="G18" s="18">
+        <v>65.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="18">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="19">
+      <c r="B19" s="18">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C19" s="18">
+        <v>4.25</v>
+      </c>
+      <c r="D19" s="18">
+        <v>6.1311999999999998E-3</v>
+      </c>
+      <c r="E19" s="18">
+        <v>2.7574000000000001E-2</v>
+      </c>
+      <c r="F19" s="18">
+        <v>46.86</v>
+      </c>
+      <c r="G19" s="18">
+        <v>73.39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="18">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="19">
+      <c r="B20" s="18">
+        <v>1.01</v>
+      </c>
+      <c r="C20" s="18">
+        <v>3.97</v>
+      </c>
+      <c r="D20" s="18">
+        <v>2.0072E-2</v>
+      </c>
+      <c r="E20" s="18">
+        <v>2.5839999999999999E-3</v>
+      </c>
+      <c r="F20" s="18">
+        <v>51.94</v>
+      </c>
+      <c r="G20" s="18">
+        <v>76.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="19">
+      <c r="B21" s="18">
+        <v>0.79</v>
+      </c>
+      <c r="C21" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1.1377E-4</v>
+      </c>
+      <c r="E21" s="18">
+        <v>1.2269E-2</v>
+      </c>
+      <c r="F21" s="18">
+        <v>63.55</v>
+      </c>
+      <c r="G21" s="18">
+        <v>87.43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="18">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="19">
+      <c r="B22" s="18">
+        <v>0.67</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3.21</v>
+      </c>
+      <c r="D22" s="26">
+        <v>2.9842000000000002E-6</v>
+      </c>
+      <c r="E22" s="18">
+        <v>1.1161000000000001E-2</v>
+      </c>
+      <c r="F22" s="18">
+        <v>73.540000000000006</v>
+      </c>
+      <c r="G22" s="18">
+        <v>96.97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="18">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="19">
+      <c r="B23" s="18">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C23" s="18">
+        <v>2.98</v>
+      </c>
+      <c r="D23" s="26">
+        <v>2.0546999999999999E-37</v>
+      </c>
+      <c r="E23" s="18">
+        <v>1.1062000000000001E-2</v>
+      </c>
+      <c r="F23" s="18">
+        <v>96.11</v>
+      </c>
+      <c r="G23" s="18">
+        <v>122.09</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="18">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>76</v>
+      <c r="B24" s="18">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C24" s="18">
+        <v>2.9750000000000001</v>
+      </c>
+      <c r="D24" s="26">
+        <v>1.3004E-59</v>
+      </c>
+      <c r="E24" s="18">
+        <v>1.1062000000000001E-2</v>
+      </c>
+      <c r="F24" s="18">
+        <v>99.55</v>
+      </c>
+      <c r="G24" s="18">
+        <v>125.54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1683,177 +1852,407 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6F2D3E-3972-124D-B0B2-445D29279125}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E14" sqref="A1:E14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="29"/>
+    <col min="6" max="6" width="20.6640625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="29" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="B2" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="B4" s="28">
+        <v>14</v>
+      </c>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="B6" s="28">
+        <v>6</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="B8" s="28">
+        <v>100</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="B12" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="B13" s="29">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C13" s="29">
+        <v>7.2</v>
+      </c>
+      <c r="D13" s="29">
+        <v>2.2065000000000001E-2</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0.92091000000000001</v>
+      </c>
+      <c r="F13" s="29">
+        <v>11.89</v>
+      </c>
+      <c r="G13" s="29">
+        <v>24.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="B14" s="29">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C14" s="29">
+        <v>7.6</v>
+      </c>
+      <c r="D14" s="29">
+        <v>2.4503E-2</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0.71675999999999995</v>
+      </c>
+      <c r="F14" s="29">
+        <v>12.44</v>
+      </c>
+      <c r="G14" s="29">
+        <v>24.47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="B15" s="29">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C15" s="29">
+        <v>7.51</v>
+      </c>
+      <c r="D15" s="29">
+        <v>2.1031000000000001E-2</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0.434</v>
+      </c>
+      <c r="F15" s="29">
+        <v>12.03</v>
+      </c>
+      <c r="G15" s="29">
+        <v>24.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="B16" s="29">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C16" s="29">
+        <v>7.42</v>
+      </c>
+      <c r="D16" s="29">
+        <v>3.5142E-2</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0.29855999999999999</v>
+      </c>
+      <c r="F16" s="29">
+        <v>12.42</v>
+      </c>
+      <c r="G16" s="29">
+        <v>26.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="29">
+        <v>0.85</v>
+      </c>
+      <c r="B17" s="29">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C17" s="29">
+        <v>7.33</v>
+      </c>
+      <c r="D17" s="29">
+        <v>2.9465999999999999E-2</v>
+      </c>
+      <c r="E17" s="29">
+        <v>0.21965000000000001</v>
+      </c>
+      <c r="F17" s="29">
+        <v>12.8</v>
+      </c>
+      <c r="G17" s="29">
+        <v>30.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="B18" s="29">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C18" s="29">
+        <v>7.17</v>
+      </c>
+      <c r="D18" s="29">
+        <v>2.5423999999999999E-2</v>
+      </c>
+      <c r="E18" s="29">
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="F18" s="29">
+        <v>12.39</v>
+      </c>
+      <c r="G18" s="29">
+        <v>29.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="29">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="B19" s="29">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C19" s="29">
+        <v>7.05</v>
+      </c>
+      <c r="D19" s="29">
+        <v>2.5637E-2</v>
+      </c>
+      <c r="E19" s="29">
+        <v>9.4978999999999994E-2</v>
+      </c>
+      <c r="F19" s="29">
+        <v>12.58</v>
+      </c>
+      <c r="G19" s="29">
+        <v>31.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="29">
+        <v>0.95</v>
+      </c>
+      <c r="B20" s="29">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C20" s="29">
+        <v>6.84</v>
+      </c>
+      <c r="D20" s="29">
+        <v>3.2819000000000001E-2</v>
+      </c>
+      <c r="E20" s="29">
+        <v>8.8696999999999998E-2</v>
+      </c>
+      <c r="F20" s="29">
+        <v>13.01</v>
+      </c>
+      <c r="G20" s="29">
+        <v>35.840000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="29">
+        <v>0.96</v>
+      </c>
+      <c r="B21" s="29">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C21" s="29">
+        <v>6.72</v>
+      </c>
+      <c r="D21" s="29">
+        <v>2.7515999999999999E-2</v>
+      </c>
+      <c r="E21" s="29">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="F21" s="29">
+        <v>12.42</v>
+      </c>
+      <c r="G21" s="29">
+        <v>37.61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="29">
+        <v>0.97</v>
+      </c>
+      <c r="B22" s="29">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C22" s="29">
+        <v>6.53</v>
+      </c>
+      <c r="D22" s="29">
+        <v>4.6115999999999997E-2</v>
+      </c>
+      <c r="E22" s="29">
+        <v>6.5724000000000005E-2</v>
+      </c>
+      <c r="F22" s="29">
+        <v>12.59</v>
+      </c>
+      <c r="G22" s="29">
+        <v>41.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="29">
+        <v>0.98</v>
+      </c>
+      <c r="B23" s="29">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C23" s="29">
+        <v>6.25</v>
+      </c>
+      <c r="D23" s="29">
+        <v>2.7421999999999998E-2</v>
+      </c>
+      <c r="E23" s="29">
+        <v>4.6489999999999997E-2</v>
+      </c>
+      <c r="F23" s="29">
+        <v>12.67</v>
+      </c>
+      <c r="G23" s="29">
+        <v>47.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="29">
+        <v>0.99</v>
+      </c>
+      <c r="B24" s="29">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C24" s="29">
+        <v>5.7</v>
+      </c>
+      <c r="D24" s="29">
+        <v>2.1876E-2</v>
+      </c>
+      <c r="E24" s="29">
+        <v>2.9409999999999999E-2</v>
+      </c>
+      <c r="F24" s="29">
+        <v>12.57</v>
+      </c>
+      <c r="G24" s="29">
+        <v>62.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1861,148 +2260,250 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6D6955-E421-5547-BE42-EC892646D32C}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CA8B3B-E8F5-E84E-AACB-62F9DECC4962}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="29"/>
+    <col min="6" max="6" width="20.6640625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="29" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="B2" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="B4" s="30"/>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="B5" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="B6" s="28">
+        <v>6</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B8" s="28">
+        <v>100</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="29">
+        <v>10</v>
+      </c>
+      <c r="B13" s="29">
+        <v>0.92</v>
+      </c>
+      <c r="C13" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1.0464000000000001E-3</v>
+      </c>
+      <c r="E13" s="29">
+        <v>4.8989999999999999E-2</v>
+      </c>
+      <c r="F13" s="29">
+        <v>6.07</v>
+      </c>
+      <c r="G13" s="29">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="29">
+        <v>15</v>
+      </c>
+      <c r="B14" s="29">
+        <v>1.34</v>
+      </c>
+      <c r="C14" s="29">
+        <v>6.41</v>
+      </c>
+      <c r="D14" s="29">
+        <v>6.4724000000000004E-2</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0.14524999999999999</v>
+      </c>
+      <c r="F14" s="29">
+        <v>4.34</v>
+      </c>
+      <c r="G14" s="29">
+        <v>9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="29">
+        <v>20</v>
+      </c>
+      <c r="B15" s="29">
+        <v>1.78</v>
+      </c>
+      <c r="C15" s="29">
+        <v>8.33</v>
+      </c>
+      <c r="D15" s="29">
+        <v>0.33555000000000001</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0.45044000000000001</v>
+      </c>
+      <c r="F15" s="29">
+        <v>3.05</v>
+      </c>
+      <c r="G15" s="29">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="29">
+        <v>25</v>
+      </c>
+      <c r="B16" s="29">
+        <v>2.11</v>
+      </c>
+      <c r="C16" s="29">
+        <v>9.61</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0.68618999999999997</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0.76575000000000004</v>
+      </c>
+      <c r="F16" s="29">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="G16" s="29">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="29">
+        <v>28</v>
+      </c>
+      <c r="B17" s="29">
+        <v>9.91</v>
+      </c>
+      <c r="C17" s="29">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D17" s="29">
+        <v>2.0217000000000001</v>
+      </c>
+      <c r="E17" s="29">
+        <v>2.1930999999999998</v>
+      </c>
+      <c r="F17" s="29">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="G17" s="29">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Compression results.xlsx
+++ b/Compression results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdel/PycharmProjects/cor-space-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B4F5D9-13C6-1C45-A340-9BBA5FA5C98F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AFC319-9349-2445-8FAD-CC8ACD337CA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44200" yWindow="7720" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{EA6EA9B5-B5A8-E14B-A1A8-570F267023DC}"/>
+    <workbookView xWindow="44240" yWindow="7700" windowWidth="28040" windowHeight="17440" xr2:uid="{EA6EA9B5-B5A8-E14B-A1A8-570F267023DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Baselines " sheetId="5" r:id="rId1"/>
@@ -20,6 +20,13 @@
     <sheet name="correaltion threshold" sheetId="11" r:id="rId5"/>
     <sheet name="tricklet length" sheetId="14" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'sparsity level'!$A$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'sparsity level'!$B$12</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'sparsity level'!$B$13:$B$24</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'sparsity level'!$C$12</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'sparsity level'!$C$13:$C$24</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="91">
   <si>
     <t>Regression (Eichinger et. al 2015)</t>
   </si>
@@ -265,9 +272,6 @@
     <t>omp</t>
   </si>
   <si>
-    <t>Our technique</t>
-  </si>
-  <si>
     <t>Learning dictionary para</t>
   </si>
   <si>
@@ -306,12 +310,39 @@
   <si>
     <t>(99, 1461)</t>
   </si>
+  <si>
+    <t>goat</t>
+  </si>
+  <si>
+    <t>https://github.com/lovasko/goat</t>
+  </si>
+  <si>
+    <t>printz: Time Series Compression for the Internet of Thing</t>
+  </si>
+  <si>
+    <t>https://github.com/dblalock/sprintz</t>
+  </si>
+  <si>
+    <t>Us</t>
+  </si>
+  <si>
+    <t>APCA</t>
+  </si>
+  <si>
+    <t>SWING</t>
+  </si>
+  <si>
+    <t>SIRCS</t>
+  </si>
+  <si>
+    <t>GAMPS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -358,21 +389,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="8"/>
+      <sz val="9"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -433,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -489,12 +513,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -535,6 +556,6720 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Compression ratio vs. sparsity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sparsity level'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compression ratio Tristan*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'sparsity level'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sparsity level</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sparsity level'!$B$13:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-647B-D943-A09E-886DFF00A9FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sparsity level'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compression ratio ours*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'sparsity level'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sparsity level</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sparsity level'!$C$13:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9750000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-647B-D943-A09E-886DFF00A9FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="321611839"/>
+        <c:axId val="362848463"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="321611839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="362848463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="362848463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321611839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>MSE vs sparsity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sparsity level'!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE Tristan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sparsity level'!$D$12:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68108999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25777</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9419999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0294999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0784E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1311999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0072E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1377E-4</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>2.9842000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>2.0546999999999999E-37</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>1.3004E-59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C20-D541-8AFF-231EE69F6E4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sparsity level'!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sparsity level'!$E$12:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0186999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80971000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34228999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15548000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2800999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1355999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7574000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5839999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2269E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1161000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1062000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1062000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C20-D541-8AFF-231EE69F6E4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="366958399"/>
+        <c:axId val="383218639"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="366958399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383218639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383218639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366958399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Compression</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>/ Reconstruction Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sparsity level'!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comp%Reconst time Tristan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'sparsity level'!$A$12:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sparsity level</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sparsity level'!$F$13:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC32-FE4D-B736-D2DD714E98D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sparsity level'!$G$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comp%Reconst time ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'sparsity level'!$A$12:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sparsity level</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sparsity level'!$G$13:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>41.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>122.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>125.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC32-FE4D-B736-D2DD714E98D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="418235487"/>
+        <c:axId val="418227759"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="418235487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418227759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="418227759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418235487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Compression ratio vs. corr threshold</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'correaltion threshold'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compression ratio Tristan*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'correaltion threshold'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>correlation threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'correaltion threshold'!$B$13:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.2857000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2857000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2857000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2857000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2857000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2857000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2857000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2857000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2857000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2857000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2857000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2857000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7451-854C-BC23-00D685E2F1B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'correaltion threshold'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compression ratio ours*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'correaltion threshold'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>correlation threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'correaltion threshold'!$C$13:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7451-854C-BC23-00D685E2F1B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="414425583"/>
+        <c:axId val="414525951"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="414425583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="414525951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="414525951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="414425583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Corr</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> time vs. corr threshold</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'correaltion threshold'!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comp%Reconst time Tristan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'correaltion threshold'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>correlation threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'correaltion threshold'!$F$13:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>11.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6B40-8F4D-A8CF-336775084B3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'correaltion threshold'!$G$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comp%Reconst time ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'correaltion threshold'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>correlation threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'correaltion threshold'!$G$13:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>24.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6B40-8F4D-A8CF-336775084B3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="414425583"/>
+        <c:axId val="414525951"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="414425583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="414525951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="414525951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="414425583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>MSE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vs Corr threshold</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'correaltion threshold'!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE Tristan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'correaltion threshold'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>correlation threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'correaltion threshold'!$D$13:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.2065000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4503E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1031000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5142E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9465999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5423999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5637E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2819000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7515999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6115999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7421999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1876E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3BFE-FA41-BD06-CD923C1BA250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'correaltion threshold'!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'correaltion threshold'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>correlation threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'correaltion threshold'!$E$13:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.92091000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71675999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29855999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21965000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4978999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8696999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5724000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6489999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9409999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3BFE-FA41-BD06-CD923C1BA250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="414425583"/>
+        <c:axId val="414525951"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="414425583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="414525951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="414525951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="414425583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>820209</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>878418</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B99D256-4650-DC4D-809F-7719B82EDB02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>502708</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>73026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>407458</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1059</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653CB1FB-1C43-AD4F-840D-5D5BBDF416D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>379237</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>132998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>53976</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF0C304-9A69-414A-A5B9-4F0869AF75CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>113242</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>94191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>615951</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF6B8D3C-1459-E740-BC7B-956402DA4107}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>395817</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>35983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>13759</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>5293</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB49FD7-0D04-224A-845D-1D8574F45249}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>357717</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>807509</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>79376</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC048C0-8421-6147-9396-7DF67910FBF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -834,72 +7569,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1F3C3F-3BD3-A14E-B668-D1F985F2737F}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="1" max="1" width="38" style="21" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="21" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="22"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="22"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="22"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="21" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{3C92EF5D-73E5-6B46-9100-1D4D7A643FC6}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{448564B0-FE50-0C47-A723-271ECDABBC8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -910,7 +7678,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1315,8 +8083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94416DE-30B7-E345-8186-BD11BDED46A2}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1378,7 +8146,7 @@
       <c r="A6" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1422,7 +8190,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="18" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -1439,8 +8207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F24F4C8-E6FE-784E-B1A1-5B7567BD0581}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1509,7 +8277,7 @@
       <c r="A6" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
     </row>
@@ -1535,10 +8303,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1546,22 +8314,22 @@
         <v>59</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="D12" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1781,7 +8549,7 @@
       <c r="C22" s="18">
         <v>3.21</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="25">
         <v>2.9842000000000002E-6</v>
       </c>
       <c r="E22" s="18">
@@ -1804,7 +8572,7 @@
       <c r="C23" s="18">
         <v>2.98</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <v>2.0546999999999999E-37</v>
       </c>
       <c r="E23" s="18">
@@ -1827,7 +8595,7 @@
       <c r="C24" s="18">
         <v>2.9750000000000001</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="25">
         <v>1.3004E-59</v>
       </c>
       <c r="E24" s="18">
@@ -1842,11 +8610,12 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1854,408 +8623,409 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6F2D3E-3972-124D-B0B2-445D29279125}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="29"/>
-    <col min="6" max="6" width="20.6640625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="29" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="29"/>
+    <col min="1" max="1" width="17.1640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="28"/>
+    <col min="6" max="6" width="20.6640625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="27">
         <v>14</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="27">
         <v>100</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="F12" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="G12" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="31" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="28">
         <v>0.5</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="28">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <v>7.2</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>2.2065000000000001E-2</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <v>0.92091000000000001</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="28">
         <v>11.89</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="28">
         <v>24.34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+      <c r="A14" s="28">
         <v>0.6</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="28">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>7.6</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>2.4503E-2</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="28">
         <v>0.71675999999999995</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="28">
         <v>12.44</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="28">
         <v>24.47</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+      <c r="A15" s="28">
         <v>0.7</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="28">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>7.51</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>2.1031000000000001E-2</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <v>0.434</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="28">
         <v>12.03</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="28">
         <v>24.78</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
+      <c r="A16" s="28">
         <v>0.8</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="28">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="28">
         <v>7.42</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>3.5142E-2</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="28">
         <v>0.29855999999999999</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="28">
         <v>12.42</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="28">
         <v>26.22</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="A17" s="28">
         <v>0.85</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="28">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="28">
         <v>7.33</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>2.9465999999999999E-2</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <v>0.21965000000000001</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="28">
         <v>12.8</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="28">
         <v>30.72</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
+      <c r="A18" s="28">
         <v>0.9</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="28">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="28">
         <v>7.17</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="28">
         <v>2.5423999999999999E-2</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="28">
         <v>0.14649999999999999</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="28">
         <v>12.39</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="28">
         <v>29.87</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
+      <c r="A19" s="28">
         <v>0.92500000000000004</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="28">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="28">
         <v>7.05</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="28">
         <v>2.5637E-2</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="28">
         <v>9.4978999999999994E-2</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="28">
         <v>12.58</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="28">
         <v>31.17</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="28">
         <v>0.95</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="28">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="28">
         <v>6.84</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="28">
         <v>3.2819000000000001E-2</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="28">
         <v>8.8696999999999998E-2</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="28">
         <v>13.01</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="28">
         <v>35.840000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+      <c r="A21" s="28">
         <v>0.96</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="28">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="28">
         <v>6.72</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="28">
         <v>2.7515999999999999E-2</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="28">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="28">
         <v>12.42</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="28">
         <v>37.61</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
+      <c r="A22" s="28">
         <v>0.97</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="28">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="28">
         <v>6.53</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="28">
         <v>4.6115999999999997E-2</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="28">
         <v>6.5724000000000005E-2</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="28">
         <v>12.59</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="28">
         <v>41.45</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
+      <c r="A23" s="28">
         <v>0.98</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="28">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="28">
         <v>6.25</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="28">
         <v>2.7421999999999998E-2</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="28">
         <v>4.6489999999999997E-2</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="28">
         <v>12.67</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="28">
         <v>47.64</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
+      <c r="A24" s="28">
         <v>0.99</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="28">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="28">
         <v>5.7</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="28">
         <v>2.1876E-2</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="28">
         <v>2.9409999999999999E-2</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="28">
         <v>12.57</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="28">
         <v>62.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2269,241 +9039,241 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="29"/>
-    <col min="6" max="6" width="20.6640625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="29" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="29"/>
+    <col min="1" max="1" width="17.1640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="28"/>
+    <col min="6" max="6" width="20.6640625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <v>0.95</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="28"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="27">
         <v>100</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="F12" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="G12" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="31" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="28">
         <v>10</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="28">
         <v>0.92</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <v>4.5</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>1.0464000000000001E-3</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <v>4.8989999999999999E-2</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="28">
         <v>6.07</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="28">
         <v>15.23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+      <c r="A14" s="28">
         <v>15</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="28">
         <v>1.34</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>6.41</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>6.4724000000000004E-2</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="28">
         <v>0.14524999999999999</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="28">
         <v>4.34</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="28">
         <v>9.8800000000000008</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+      <c r="A15" s="28">
         <v>20</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="28">
         <v>1.78</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>8.33</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>0.33555000000000001</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <v>0.45044000000000001</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="28">
         <v>3.05</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="28">
         <v>7.95</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
+      <c r="A16" s="28">
         <v>25</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="28">
         <v>2.11</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="28">
         <v>9.61</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>0.68618999999999997</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="28">
         <v>0.76575000000000004</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="28">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="28">
         <v>5.57</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="A17" s="28">
         <v>28</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="28">
         <v>9.91</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="28">
         <v>2.3199999999999998</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>2.0217000000000001</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <v>2.1930999999999998</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="28">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="28">
         <v>6.19</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Compression results.xlsx
+++ b/Compression results.xlsx
@@ -8,25 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdel/PycharmProjects/cor-space-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AFC319-9349-2445-8FAD-CC8ACD337CA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB3E546-AB83-9641-8F02-BA91EDA23939}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44240" yWindow="7700" windowWidth="28040" windowHeight="17440" xr2:uid="{EA6EA9B5-B5A8-E14B-A1A8-570F267023DC}"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{EA6EA9B5-B5A8-E14B-A1A8-570F267023DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Baselines " sheetId="5" r:id="rId1"/>
-    <sheet name="Datasets" sheetId="4" r:id="rId2"/>
-    <sheet name="algo vs. algo" sheetId="6" r:id="rId3"/>
-    <sheet name="sparsity level" sheetId="10" r:id="rId4"/>
-    <sheet name="correaltion threshold" sheetId="11" r:id="rId5"/>
-    <sheet name="tricklet length" sheetId="14" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId2"/>
+    <sheet name="Datasets" sheetId="4" r:id="rId3"/>
+    <sheet name="algo vs. algo" sheetId="6" r:id="rId4"/>
+    <sheet name="sparsity level" sheetId="10" r:id="rId5"/>
+    <sheet name="correaltion threshold" sheetId="11" r:id="rId6"/>
+    <sheet name="tricklet length" sheetId="14" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'sparsity level'!$A$12</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'sparsity level'!$B$12</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'sparsity level'!$B$13:$B$24</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'sparsity level'!$C$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'sparsity level'!$C$13:$C$24</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,27 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="91">
-  <si>
-    <t>Regression (Eichinger et. al 2015)</t>
-  </si>
-  <si>
-    <t>Wavelet Decomposition (Oinam et. al 2013)</t>
-  </si>
-  <si>
-    <t>Dictionary for TS similarity (Patel et. al 2010)</t>
-  </si>
-  <si>
-    <t>Fourier</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="132">
   <si>
     <t>Chebyshev</t>
-  </si>
-  <si>
-    <t>Gorilla (Pelkonen et. Al 2015)</t>
-  </si>
-  <si>
-    <t>http://www.vldb.org/pvldb/vol8/p1816-teller.pdf</t>
   </si>
   <si>
     <t>Name</t>
@@ -248,9 +224,6 @@
     <t>correlation threshold</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference </t>
-  </si>
-  <si>
     <t>TRISTAN</t>
   </si>
   <si>
@@ -311,21 +284,9 @@
     <t>(99, 1461)</t>
   </si>
   <si>
-    <t>goat</t>
-  </si>
-  <si>
-    <t>https://github.com/lovasko/goat</t>
-  </si>
-  <si>
-    <t>printz: Time Series Compression for the Internet of Thing</t>
-  </si>
-  <si>
     <t>https://github.com/dblalock/sprintz</t>
   </si>
   <si>
-    <t>Us</t>
-  </si>
-  <si>
     <t>APCA</t>
   </si>
   <si>
@@ -335,14 +296,171 @@
     <t>SIRCS</t>
   </si>
   <si>
-    <t>GAMPS</t>
+    <t>Baseline techniques</t>
+  </si>
+  <si>
+    <t>Paper title</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Code link</t>
+  </si>
+  <si>
+    <t>Code language</t>
+  </si>
+  <si>
+    <t>Relevance</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>On going</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Won't do</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>IEEE BigData</t>
+  </si>
+  <si>
+    <t>Ours</t>
+  </si>
+  <si>
+    <t>Wavelet</t>
+  </si>
+  <si>
+    <t>A time-series compression technique and its application to the smart grid</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>VLDB</t>
+  </si>
+  <si>
+    <t>Gorilla: A Fast, Scalable, In-Memory Time Series Database</t>
+  </si>
+  <si>
+    <t>Wavelets</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>no reconstruction possible</t>
+  </si>
+  <si>
+    <t>Dictionary-based compression for long time-series similarity</t>
+  </si>
+  <si>
+    <t>Compression of time series signal using wavelet decomposition, wavelet packet and decimated discrete wavelet compression transforms techniques and their comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IJARCCE</t>
+  </si>
+  <si>
+    <t>Sprintz: Time Series Compression for the Internet of Things</t>
+  </si>
+  <si>
+    <t>arXiv</t>
+  </si>
+  <si>
+    <t>AMPDs, MSRC-12, PAMAP, UCI Gas, UCR Archive</t>
+  </si>
+  <si>
+    <t>TRISTAN: Real-time analytics on massive time series using sparse dictionary compression</t>
+  </si>
+  <si>
+    <t>Sprintz</t>
+  </si>
+  <si>
+    <t>Lossy?</t>
+  </si>
+  <si>
+    <t>Gorilla</t>
+  </si>
+  <si>
+    <t>https://github.com/lovasko/goat
+https://github.com/dgryski/go-tsz</t>
+  </si>
+  <si>
+    <t>ECG Data Compression using Wavelet Transform</t>
+  </si>
+  <si>
+    <t>IJETT</t>
+  </si>
+  <si>
+    <t>https://github.com/nerajbobra/wavelet-based-ecg-compression</t>
+  </si>
+  <si>
+    <t>interesting error thresholding</t>
+  </si>
+  <si>
+    <t>IoT data compression: Sensor-agnostic approach</t>
+  </si>
+  <si>
+    <t>DCC</t>
+  </si>
+  <si>
+    <t>https://github.com/eladwass/Adaptive-Chebyshev-Compression</t>
+  </si>
+  <si>
+    <t>Algorithm name</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Fourier transforms,</t>
+  </si>
+  <si>
+    <t>symbolic representations</t>
+  </si>
+  <si>
+    <t>piecewise regression</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Similarity search</t>
+  </si>
+  <si>
+    <t>Anomaly detection</t>
+  </si>
+  <si>
+    <t>Prediction</t>
+  </si>
+  <si>
+    <t>Querying the data</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Missing values recovery</t>
+  </si>
+  <si>
+    <t>20 algorithms vldb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -395,15 +513,19 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,8 +550,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5B6E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -452,12 +598,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -507,6 +749,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -514,8 +759,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,13 +783,649 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5B6E"/>
+      <color rgb="FFFF4850"/>
+      <color rgb="FFFF787C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -841,7 +1720,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2010,7 +2888,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2360,7 +3237,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -2596,7 +3473,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:overlay val="0"/>
@@ -2632,6 +3509,39 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="414525951"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -7272,6 +8182,29 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4E2E8638-E804-F24C-A623-C61CF7347B7E}" name="Table2" displayName="Table2" ref="A3:K17" totalsRowShown="0" headerRowDxfId="14" dataDxfId="0" headerRowBorderDxfId="12" tableBorderDxfId="13">
+  <autoFilter ref="A3:K17" xr:uid="{3F81B93F-BB7F-7D49-85A9-472FB7684B7F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K17">
+    <sortCondition descending="1" ref="E3:E17"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{8DB0637D-B1CE-9447-9311-233CEBAB01C8}" name="Paper title" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{1356208F-404A-CF4C-B658-BADDE6030D4F}" name="Algorithm name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{E801731D-C86B-1744-A555-477C6248AEC8}" name="Lossy?" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{B56069EC-CBA0-B040-A370-4C2DFA6F81C3}" name="Conference" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{782191BB-1ED2-B741-85BB-976C06E110F9}" name="Year" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{008DA50B-A5BD-7749-A3D6-91F12B7E7CB2}" name="Code link" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{BA7CEF8C-785F-1E4E-BFB7-651D116B8730}" name="Code language" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{EBB19D2A-EF34-4F4E-BEB9-33EE4C1548C1}" name="Relevance" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{A40E25EC-409D-8045-9218-6D7854769606}" name="Complexity" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{A2FBA2FB-2774-C945-8707-AEBADC7D4AE9}" name="Dataset" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{D6038798-F9C5-204B-A566-2C9018AE1A02}" name="Remarks" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7569,121 +8502,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1F3C3F-3BD3-A14E-B668-D1F985F2737F}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="38" style="21" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="21" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="21"/>
+    <col min="1" max="1" width="54" style="22" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="18" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="18" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="18"/>
+    <col min="10" max="10" width="31.5" style="35" customWidth="1"/>
+    <col min="11" max="11" width="18" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+    <row r="1" spans="1:12" ht="26" customHeight="1">
+      <c r="A1" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="39" customFormat="1">
+      <c r="A3" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" spans="1:12" s="49" customFormat="1">
+      <c r="A4" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="46">
+        <v>2018</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:12" s="49" customFormat="1">
+      <c r="A5" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="46">
+        <v>2015</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="48"/>
+    </row>
+    <row r="6" spans="1:12" s="49" customFormat="1">
+      <c r="A6" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="46">
+        <v>2015</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
+    </row>
+    <row r="7" spans="1:12" s="49" customFormat="1">
+      <c r="A7" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="46" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="21" t="s">
+      <c r="C7" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="46">
+        <v>2015</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
+    </row>
+    <row r="8" spans="1:12" s="72" customFormat="1">
+      <c r="A8" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="68">
+        <v>2014</v>
+      </c>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
+    </row>
+    <row r="9" spans="1:12" s="49" customFormat="1">
+      <c r="A9" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="55">
+        <v>2014</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="49" customFormat="1">
+      <c r="A10" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="40">
+        <v>2013</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+    </row>
+    <row r="11" spans="1:12" s="54" customFormat="1" ht="25" customHeight="1">
+      <c r="A11" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43">
+        <v>2010</v>
+      </c>
+      <c r="F11" s="61"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" spans="1:12" s="49" customFormat="1">
+      <c r="A13" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="1:12" s="49" customFormat="1">
+      <c r="A14" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
+    </row>
+    <row r="15" spans="1:12" s="49" customFormat="1">
+      <c r="A15" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="48"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+    </row>
+    <row r="20" spans="1:12" s="18" customFormat="1">
+      <c r="A20" s="22"/>
+      <c r="F20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22" s="59"/>
+      <c r="C22" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="s">
+    <row r="23" spans="1:12">
+      <c r="B23" s="34"/>
+      <c r="C23" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="B24" s="33"/>
+      <c r="C24" s="18" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{3C92EF5D-73E5-6B46-9100-1D4D7A643FC6}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{448564B0-FE50-0C47-A723-271ECDABBC8E}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{05BD55E2-54BE-7F40-9155-3619564CB7CC}"/>
+    <hyperlink ref="F6" r:id="rId2" display="https://github.com/lovasko/goat" xr:uid="{448564B0-FE50-0C47-A723-271ECDABBC8E}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{D083134E-93F5-FA49-96B9-683535269EBC}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{01B5A4CF-B080-354F-B510-2443389045F4}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232E0569-CE7A-8D49-B218-09F735076CED}">
+  <dimension ref="A7:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" style="73" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="75" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:3" s="74" customFormat="1">
+      <c r="A7" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="73" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8D796B-7F89-E54A-8DFC-2721ED663FBA}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="38" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="64.83203125" style="1" customWidth="1"/>
@@ -7691,26 +8972,26 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" s="7">
         <v>53</v>
@@ -7719,16 +9000,16 @@
         <v>811</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E2" s="9">
         <f t="shared" ref="E2:E7" si="0">B2*C2</f>
         <v>42983</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="7" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7">
         <v>3000</v>
@@ -7737,16 +9018,16 @@
         <v>426</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" si="0"/>
         <v>1278000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="7" customFormat="1">
       <c r="A4" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B4" s="7">
         <v>1380</v>
@@ -7755,16 +9036,16 @@
         <v>1639</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="0"/>
         <v>2261820</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="7" customFormat="1">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B5" s="7">
         <v>208</v>
@@ -7778,9 +9059,9 @@
         <v>416000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="11" customFormat="1">
       <c r="A6" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B6" s="11">
         <v>29</v>
@@ -7789,16 +9070,16 @@
         <v>19735</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="0"/>
         <v>572315</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="7" customFormat="1">
       <c r="A7" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B7" s="7">
         <v>15</v>
@@ -7807,16 +9088,16 @@
         <v>295719</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>4435785</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>3582</v>
@@ -7825,16 +9106,16 @@
         <v>945</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" ref="E8:E12" si="1">B8*C8</f>
         <v>3384990</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>6164</v>
@@ -7843,16 +9124,16 @@
         <v>152</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
         <v>936928</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>4000</v>
@@ -7861,16 +9142,16 @@
         <v>128</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
         <v>512000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>8236</v>
@@ -7879,16 +9160,16 @@
         <v>1024</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
         <v>8433664</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>100</v>
@@ -7897,16 +9178,16 @@
         <v>1460</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
         <v>146000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="14" customFormat="1">
       <c r="A13" s="14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13" s="14">
         <v>119</v>
@@ -7919,9 +9200,9 @@
         <v>357000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1">
         <v>600</v>
@@ -7934,9 +9215,9 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1">
         <v>52</v>
@@ -7945,16 +9226,16 @@
         <v>3850505</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="2"/>
         <v>200226260</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <v>12</v>
@@ -7963,16 +9244,16 @@
         <v>63000000</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="2"/>
         <v>756000000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>86</v>
@@ -7985,9 +9266,9 @@
         <v>4545444</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="11" customFormat="1">
       <c r="A18" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B18" s="11">
         <v>13</v>
@@ -7996,16 +9277,16 @@
         <v>43824</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E18" s="13">
         <f t="shared" si="2"/>
         <v>569712</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1">
         <v>77</v>
@@ -8014,16 +9295,16 @@
         <v>140000</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="2"/>
         <v>10780000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1">
         <v>13</v>
@@ -8032,16 +9313,16 @@
         <v>230318</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="2"/>
         <v>2994134</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -8050,7 +9331,7 @@
         <v>4095000</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="2"/>
@@ -8079,15 +9360,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94416DE-30B7-E345-8186-BD11BDED46A2}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="17.5" style="18" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="18" customWidth="1"/>
@@ -8097,105 +9378,110 @@
     <col min="7" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="21"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="21"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="21"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="21">
+        <v>100</v>
+      </c>
+      <c r="C8" s="21"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="D14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="20"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="20">
-        <v>0.95</v>
-      </c>
-      <c r="C5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="20"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="20">
-        <v>100</v>
-      </c>
-      <c r="C8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="18" t="s">
-        <v>62</v>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -8203,15 +9489,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F24F4C8-E6FE-784E-B1A1-5B7567BD0581}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="17.1640625" style="18" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" style="18" customWidth="1"/>
@@ -8223,116 +9509,116 @@
     <col min="8" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="B3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="21">
+        <v>14</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="21">
+        <v>100</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="E12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="20">
-        <v>14</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="20">
-        <v>0.95</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="20" t="s">
+      <c r="F12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="20">
-        <v>100</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="18">
         <v>1</v>
       </c>
@@ -8355,7 +9641,7 @@
         <v>41.76</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="18">
         <v>2</v>
       </c>
@@ -8378,7 +9664,7 @@
         <v>43.72</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="18">
         <v>3</v>
       </c>
@@ -8401,7 +9687,7 @@
         <v>51.27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="18">
         <v>4</v>
       </c>
@@ -8424,7 +9710,7 @@
         <v>56.62</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="18">
         <v>5</v>
       </c>
@@ -8447,7 +9733,7 @@
         <v>60.77</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="18">
         <v>6</v>
       </c>
@@ -8470,7 +9756,7 @@
         <v>65.73</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="18">
         <v>7</v>
       </c>
@@ -8493,7 +9779,7 @@
         <v>73.39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="18">
         <v>8</v>
       </c>
@@ -8516,7 +9802,7 @@
         <v>76.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="18">
         <v>10</v>
       </c>
@@ -8539,7 +9825,7 @@
         <v>87.43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="18">
         <v>12</v>
       </c>
@@ -8549,7 +9835,7 @@
       <c r="C22" s="18">
         <v>3.21</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="24">
         <v>2.9842000000000002E-6</v>
       </c>
       <c r="E22" s="18">
@@ -8562,7 +9848,7 @@
         <v>96.97</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="18">
         <v>15</v>
       </c>
@@ -8572,7 +9858,7 @@
       <c r="C23" s="18">
         <v>2.98</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="24">
         <v>2.0546999999999999E-37</v>
       </c>
       <c r="E23" s="18">
@@ -8585,7 +9871,7 @@
         <v>122.09</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="18">
         <v>20</v>
       </c>
@@ -8595,7 +9881,7 @@
       <c r="C24" s="18">
         <v>2.9750000000000001</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="24">
         <v>1.3004E-59</v>
       </c>
       <c r="E24" s="18">
@@ -8608,419 +9894,9 @@
         <v>125.54</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6F2D3E-3972-124D-B0B2-445D29279125}">
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:E57"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.1640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="28"/>
-    <col min="6" max="6" width="20.6640625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="28"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="27">
-        <v>14</v>
-      </c>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="27">
-        <v>6</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="27">
-        <v>100</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="B13" s="28">
-        <v>1.2857000000000001</v>
-      </c>
-      <c r="C13" s="28">
-        <v>7.2</v>
-      </c>
-      <c r="D13" s="28">
-        <v>2.2065000000000001E-2</v>
-      </c>
-      <c r="E13" s="28">
-        <v>0.92091000000000001</v>
-      </c>
-      <c r="F13" s="28">
-        <v>11.89</v>
-      </c>
-      <c r="G13" s="28">
-        <v>24.34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
-        <v>0.6</v>
-      </c>
-      <c r="B14" s="28">
-        <v>1.2857000000000001</v>
-      </c>
-      <c r="C14" s="28">
-        <v>7.6</v>
-      </c>
-      <c r="D14" s="28">
-        <v>2.4503E-2</v>
-      </c>
-      <c r="E14" s="28">
-        <v>0.71675999999999995</v>
-      </c>
-      <c r="F14" s="28">
-        <v>12.44</v>
-      </c>
-      <c r="G14" s="28">
-        <v>24.47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="28">
-        <v>0.7</v>
-      </c>
-      <c r="B15" s="28">
-        <v>1.2857000000000001</v>
-      </c>
-      <c r="C15" s="28">
-        <v>7.51</v>
-      </c>
-      <c r="D15" s="28">
-        <v>2.1031000000000001E-2</v>
-      </c>
-      <c r="E15" s="28">
-        <v>0.434</v>
-      </c>
-      <c r="F15" s="28">
-        <v>12.03</v>
-      </c>
-      <c r="G15" s="28">
-        <v>24.78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
-        <v>0.8</v>
-      </c>
-      <c r="B16" s="28">
-        <v>1.2857000000000001</v>
-      </c>
-      <c r="C16" s="28">
-        <v>7.42</v>
-      </c>
-      <c r="D16" s="28">
-        <v>3.5142E-2</v>
-      </c>
-      <c r="E16" s="28">
-        <v>0.29855999999999999</v>
-      </c>
-      <c r="F16" s="28">
-        <v>12.42</v>
-      </c>
-      <c r="G16" s="28">
-        <v>26.22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
-        <v>0.85</v>
-      </c>
-      <c r="B17" s="28">
-        <v>1.2857000000000001</v>
-      </c>
-      <c r="C17" s="28">
-        <v>7.33</v>
-      </c>
-      <c r="D17" s="28">
-        <v>2.9465999999999999E-2</v>
-      </c>
-      <c r="E17" s="28">
-        <v>0.21965000000000001</v>
-      </c>
-      <c r="F17" s="28">
-        <v>12.8</v>
-      </c>
-      <c r="G17" s="28">
-        <v>30.72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="28">
-        <v>0.9</v>
-      </c>
-      <c r="B18" s="28">
-        <v>1.2857000000000001</v>
-      </c>
-      <c r="C18" s="28">
-        <v>7.17</v>
-      </c>
-      <c r="D18" s="28">
-        <v>2.5423999999999999E-2</v>
-      </c>
-      <c r="E18" s="28">
-        <v>0.14649999999999999</v>
-      </c>
-      <c r="F18" s="28">
-        <v>12.39</v>
-      </c>
-      <c r="G18" s="28">
-        <v>29.87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="28">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="B19" s="28">
-        <v>1.2857000000000001</v>
-      </c>
-      <c r="C19" s="28">
-        <v>7.05</v>
-      </c>
-      <c r="D19" s="28">
-        <v>2.5637E-2</v>
-      </c>
-      <c r="E19" s="28">
-        <v>9.4978999999999994E-2</v>
-      </c>
-      <c r="F19" s="28">
-        <v>12.58</v>
-      </c>
-      <c r="G19" s="28">
-        <v>31.17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
-        <v>0.95</v>
-      </c>
-      <c r="B20" s="28">
-        <v>1.2857000000000001</v>
-      </c>
-      <c r="C20" s="28">
-        <v>6.84</v>
-      </c>
-      <c r="D20" s="28">
-        <v>3.2819000000000001E-2</v>
-      </c>
-      <c r="E20" s="28">
-        <v>8.8696999999999998E-2</v>
-      </c>
-      <c r="F20" s="28">
-        <v>13.01</v>
-      </c>
-      <c r="G20" s="28">
-        <v>35.840000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
-        <v>0.96</v>
-      </c>
-      <c r="B21" s="28">
-        <v>1.2857000000000001</v>
-      </c>
-      <c r="C21" s="28">
-        <v>6.72</v>
-      </c>
-      <c r="D21" s="28">
-        <v>2.7515999999999999E-2</v>
-      </c>
-      <c r="E21" s="28">
-        <v>6.1199999999999997E-2</v>
-      </c>
-      <c r="F21" s="28">
-        <v>12.42</v>
-      </c>
-      <c r="G21" s="28">
-        <v>37.61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
-        <v>0.97</v>
-      </c>
-      <c r="B22" s="28">
-        <v>1.2857000000000001</v>
-      </c>
-      <c r="C22" s="28">
-        <v>6.53</v>
-      </c>
-      <c r="D22" s="28">
-        <v>4.6115999999999997E-2</v>
-      </c>
-      <c r="E22" s="28">
-        <v>6.5724000000000005E-2</v>
-      </c>
-      <c r="F22" s="28">
-        <v>12.59</v>
-      </c>
-      <c r="G22" s="28">
-        <v>41.45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
-        <v>0.98</v>
-      </c>
-      <c r="B23" s="28">
-        <v>1.2857000000000001</v>
-      </c>
-      <c r="C23" s="28">
-        <v>6.25</v>
-      </c>
-      <c r="D23" s="28">
-        <v>2.7421999999999998E-2</v>
-      </c>
-      <c r="E23" s="28">
-        <v>4.6489999999999997E-2</v>
-      </c>
-      <c r="F23" s="28">
-        <v>12.67</v>
-      </c>
-      <c r="G23" s="28">
-        <v>47.64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
-        <v>0.99</v>
-      </c>
-      <c r="B24" s="28">
-        <v>1.2857000000000001</v>
-      </c>
-      <c r="C24" s="28">
-        <v>5.7</v>
-      </c>
-      <c r="D24" s="28">
-        <v>2.1876E-2</v>
-      </c>
-      <c r="E24" s="28">
-        <v>2.9409999999999999E-2</v>
-      </c>
-      <c r="F24" s="28">
-        <v>12.57</v>
-      </c>
-      <c r="G24" s="28">
-        <v>62.2</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -9030,6 +9906,416 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6F2D3E-3972-124D-B0B2-445D29279125}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:E57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="27"/>
+    <col min="6" max="6" width="20.6640625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="27" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="26">
+        <v>14</v>
+      </c>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="26">
+        <v>6</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="26">
+        <v>100</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="B13" s="27">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C13" s="27">
+        <v>7.2</v>
+      </c>
+      <c r="D13" s="27">
+        <v>2.2065000000000001E-2</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0.92091000000000001</v>
+      </c>
+      <c r="F13" s="27">
+        <v>11.89</v>
+      </c>
+      <c r="G13" s="27">
+        <v>24.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="B14" s="27">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C14" s="27">
+        <v>7.6</v>
+      </c>
+      <c r="D14" s="27">
+        <v>2.4503E-2</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0.71675999999999995</v>
+      </c>
+      <c r="F14" s="27">
+        <v>12.44</v>
+      </c>
+      <c r="G14" s="27">
+        <v>24.47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="B15" s="27">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C15" s="27">
+        <v>7.51</v>
+      </c>
+      <c r="D15" s="27">
+        <v>2.1031000000000001E-2</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0.434</v>
+      </c>
+      <c r="F15" s="27">
+        <v>12.03</v>
+      </c>
+      <c r="G15" s="27">
+        <v>24.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="B16" s="27">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C16" s="27">
+        <v>7.42</v>
+      </c>
+      <c r="D16" s="27">
+        <v>3.5142E-2</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0.29855999999999999</v>
+      </c>
+      <c r="F16" s="27">
+        <v>12.42</v>
+      </c>
+      <c r="G16" s="27">
+        <v>26.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="B17" s="27">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C17" s="27">
+        <v>7.33</v>
+      </c>
+      <c r="D17" s="27">
+        <v>2.9465999999999999E-2</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0.21965000000000001</v>
+      </c>
+      <c r="F17" s="27">
+        <v>12.8</v>
+      </c>
+      <c r="G17" s="27">
+        <v>30.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="B18" s="27">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C18" s="27">
+        <v>7.17</v>
+      </c>
+      <c r="D18" s="27">
+        <v>2.5423999999999999E-2</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="F18" s="27">
+        <v>12.39</v>
+      </c>
+      <c r="G18" s="27">
+        <v>29.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="27">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="B19" s="27">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C19" s="27">
+        <v>7.05</v>
+      </c>
+      <c r="D19" s="27">
+        <v>2.5637E-2</v>
+      </c>
+      <c r="E19" s="27">
+        <v>9.4978999999999994E-2</v>
+      </c>
+      <c r="F19" s="27">
+        <v>12.58</v>
+      </c>
+      <c r="G19" s="27">
+        <v>31.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="27">
+        <v>0.95</v>
+      </c>
+      <c r="B20" s="27">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C20" s="27">
+        <v>6.84</v>
+      </c>
+      <c r="D20" s="27">
+        <v>3.2819000000000001E-2</v>
+      </c>
+      <c r="E20" s="27">
+        <v>8.8696999999999998E-2</v>
+      </c>
+      <c r="F20" s="27">
+        <v>13.01</v>
+      </c>
+      <c r="G20" s="27">
+        <v>35.840000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="27">
+        <v>0.96</v>
+      </c>
+      <c r="B21" s="27">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C21" s="27">
+        <v>6.72</v>
+      </c>
+      <c r="D21" s="27">
+        <v>2.7515999999999999E-2</v>
+      </c>
+      <c r="E21" s="27">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="F21" s="27">
+        <v>12.42</v>
+      </c>
+      <c r="G21" s="27">
+        <v>37.61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="27">
+        <v>0.97</v>
+      </c>
+      <c r="B22" s="27">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C22" s="27">
+        <v>6.53</v>
+      </c>
+      <c r="D22" s="27">
+        <v>4.6115999999999997E-2</v>
+      </c>
+      <c r="E22" s="27">
+        <v>6.5724000000000005E-2</v>
+      </c>
+      <c r="F22" s="27">
+        <v>12.59</v>
+      </c>
+      <c r="G22" s="27">
+        <v>41.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="27">
+        <v>0.98</v>
+      </c>
+      <c r="B23" s="27">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C23" s="27">
+        <v>6.25</v>
+      </c>
+      <c r="D23" s="27">
+        <v>2.7421999999999998E-2</v>
+      </c>
+      <c r="E23" s="27">
+        <v>4.6489999999999997E-2</v>
+      </c>
+      <c r="F23" s="27">
+        <v>12.67</v>
+      </c>
+      <c r="G23" s="27">
+        <v>47.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="B24" s="27">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="C24" s="27">
+        <v>5.7</v>
+      </c>
+      <c r="D24" s="27">
+        <v>2.1876E-2</v>
+      </c>
+      <c r="E24" s="27">
+        <v>2.9409999999999999E-2</v>
+      </c>
+      <c r="F24" s="27">
+        <v>12.57</v>
+      </c>
+      <c r="G24" s="27">
+        <v>62.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CA8B3B-E8F5-E84E-AACB-62F9DECC4962}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -9037,243 +10323,243 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="28"/>
-    <col min="6" max="6" width="20.6640625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="28"/>
+    <col min="1" max="1" width="17.1640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="27"/>
+    <col min="6" max="6" width="20.6640625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="27" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="B3" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="26">
+        <v>0.95</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="26">
+        <v>6</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="26">
+        <v>100</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="27">
-        <v>0.95</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="27">
-        <v>6</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="27" t="s">
+      <c r="E12" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="27">
-        <v>100</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="27">
         <v>10</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="27">
         <v>0.92</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="27">
         <v>4.5</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="27">
         <v>1.0464000000000001E-3</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <v>4.8989999999999999E-2</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="27">
         <v>6.07</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>15.23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+    <row r="14" spans="1:7">
+      <c r="A14" s="27">
         <v>15</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="27">
         <v>1.34</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="27">
         <v>6.41</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="27">
         <v>6.4724000000000004E-2</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="27">
         <v>0.14524999999999999</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <v>4.34</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="27">
         <v>9.8800000000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="28">
+    <row r="15" spans="1:7">
+      <c r="A15" s="27">
         <v>20</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="27">
         <v>1.78</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="27">
         <v>8.33</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="27">
         <v>0.33555000000000001</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <v>0.45044000000000001</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="27">
         <v>3.05</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="27">
         <v>7.95</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
+    <row r="16" spans="1:7">
+      <c r="A16" s="27">
         <v>25</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="27">
         <v>2.11</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="27">
         <v>9.61</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="27">
         <v>0.68618999999999997</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <v>0.76575000000000004</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="27">
         <v>5.57</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
+    <row r="17" spans="1:7">
+      <c r="A17" s="27">
         <v>28</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="27">
         <v>9.91</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="27">
         <v>2.3199999999999998</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="27">
         <v>2.0217000000000001</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <v>2.1930999999999998</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="27">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="27">
         <v>6.19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Compression results.xlsx
+++ b/Compression results.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdel/PycharmProjects/cor-space-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB3E546-AB83-9641-8F02-BA91EDA23939}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF38E6E-6E8B-CA4C-B0F9-78E342EF232C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{EA6EA9B5-B5A8-E14B-A1A8-570F267023DC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{EA6EA9B5-B5A8-E14B-A1A8-570F267023DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Baselines " sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId2"/>
+    <sheet name="Applications" sheetId="15" r:id="rId2"/>
     <sheet name="Datasets" sheetId="4" r:id="rId3"/>
     <sheet name="algo vs. algo" sheetId="6" r:id="rId4"/>
     <sheet name="sparsity level" sheetId="10" r:id="rId5"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="135">
   <si>
     <t>Chebyshev</t>
   </si>
@@ -344,9 +344,6 @@
     <t>A time-series compression technique and its application to the smart grid</t>
   </si>
   <si>
-    <t>Regression</t>
-  </si>
-  <si>
     <t>VLDB</t>
   </si>
   <si>
@@ -423,15 +420,9 @@
     <t>No</t>
   </si>
   <si>
-    <t>Fourier transforms,</t>
-  </si>
-  <si>
     <t>symbolic representations</t>
   </si>
   <si>
-    <t>piecewise regression</t>
-  </si>
-  <si>
     <t>Application</t>
   </si>
   <si>
@@ -454,13 +445,31 @@
   </si>
   <si>
     <t>20 algorithms vldb</t>
+  </si>
+  <si>
+    <t>Piecewise regression</t>
+  </si>
+  <si>
+    <t>Fourier transforms</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>Won't use</t>
+  </si>
+  <si>
+    <t>Correlation range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[] </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -511,6 +520,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -699,19 +716,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -720,33 +730,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -784,12 +780,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -820,38 +823,41 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -860,7 +866,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -869,10 +875,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -881,22 +887,22 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -908,15 +914,176 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="22">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1588,7 +1755,7 @@
                   <c:v>1.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.35</c:v>
+                  <c:v>1.63</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.1499999999999999</c:v>
@@ -1689,7 +1856,7 @@
                   <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.41</c:v>
+                  <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.25</c:v>
@@ -2134,7 +2301,7 @@
                   <c:v>5.0294999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0784E-2</c:v>
+                  <c:v>5.0294999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6.1311999999999998E-3</c:v>
@@ -2227,7 +2394,7 @@
                   <c:v>9.2800999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1355999999999999E-2</c:v>
+                  <c:v>9.2800999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.7574000000000001E-2</c:v>
@@ -8183,23 +8350,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4E2E8638-E804-F24C-A623-C61CF7347B7E}" name="Table2" displayName="Table2" ref="A3:K17" totalsRowShown="0" headerRowDxfId="14" dataDxfId="0" headerRowBorderDxfId="12" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4E2E8638-E804-F24C-A623-C61CF7347B7E}" name="Table2" displayName="Table2" ref="A3:K17" totalsRowShown="0" headerRowDxfId="21" dataDxfId="7" headerRowBorderDxfId="19" tableBorderDxfId="20">
   <autoFilter ref="A3:K17" xr:uid="{3F81B93F-BB7F-7D49-85A9-472FB7684B7F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K17">
     <sortCondition descending="1" ref="E3:E17"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{8DB0637D-B1CE-9447-9311-233CEBAB01C8}" name="Paper title" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{1356208F-404A-CF4C-B658-BADDE6030D4F}" name="Algorithm name" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{E801731D-C86B-1744-A555-477C6248AEC8}" name="Lossy?" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{B56069EC-CBA0-B040-A370-4C2DFA6F81C3}" name="Conference" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{782191BB-1ED2-B741-85BB-976C06E110F9}" name="Year" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{008DA50B-A5BD-7749-A3D6-91F12B7E7CB2}" name="Code link" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{BA7CEF8C-785F-1E4E-BFB7-651D116B8730}" name="Code language" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{EBB19D2A-EF34-4F4E-BEB9-33EE4C1548C1}" name="Relevance" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{A40E25EC-409D-8045-9218-6D7854769606}" name="Complexity" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{A2FBA2FB-2774-C945-8707-AEBADC7D4AE9}" name="Dataset" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{D6038798-F9C5-204B-A566-2C9018AE1A02}" name="Remarks" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8DB0637D-B1CE-9447-9311-233CEBAB01C8}" name="Paper title" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{1356208F-404A-CF4C-B658-BADDE6030D4F}" name="Algorithm name" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{E801731D-C86B-1744-A555-477C6248AEC8}" name="Lossy?" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{B56069EC-CBA0-B040-A370-4C2DFA6F81C3}" name="Conference" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{782191BB-1ED2-B741-85BB-976C06E110F9}" name="Year" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{008DA50B-A5BD-7749-A3D6-91F12B7E7CB2}" name="Code link" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{BA7CEF8C-785F-1E4E-BFB7-651D116B8730}" name="Code language" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{EBB19D2A-EF34-4F4E-BEB9-33EE4C1548C1}" name="Relevance" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{A40E25EC-409D-8045-9218-6D7854769606}" name="Complexity" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{A2FBA2FB-2774-C945-8707-AEBADC7D4AE9}" name="Dataset" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{D6038798-F9C5-204B-A566-2C9018AE1A02}" name="Remarks" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1EB7E9AE-A1CA-964D-A21D-CC299036AEAA}" name="Table3" displayName="Table3" ref="A7:C13" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A7:C13" xr:uid="{E3340B15-5FA8-2E44-B296-592F93CA384B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C13">
+    <sortCondition ref="B7:B13"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{63A76326-79B6-D042-9E90-A0AC8894FD58}" name="Application" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D4DEE5A4-CC5C-D646-9738-8A78A1307E88}" name="Status" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{FE134106-9452-1048-89D1-137254D48A46}" name="Remarks" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8505,377 +8687,369 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="54" style="22" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="18" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" style="18" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="18"/>
-    <col min="10" max="10" width="31.5" style="35" customWidth="1"/>
-    <col min="11" max="11" width="18" style="22" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="22"/>
+    <col min="1" max="1" width="54" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="8" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="8"/>
+    <col min="10" max="10" width="31.5" style="28" customWidth="1"/>
+    <col min="11" max="11" width="18" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="39" customFormat="1">
-      <c r="A3" s="62" t="s">
+    <row r="3" spans="1:12" s="33" customFormat="1">
+      <c r="A3" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" s="43" customFormat="1">
+      <c r="A4" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="40">
+        <v>2018</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="42"/>
+    </row>
+    <row r="5" spans="1:12" s="43" customFormat="1">
+      <c r="A5" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="40">
+        <v>2015</v>
+      </c>
+      <c r="F5" s="55"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="42"/>
+    </row>
+    <row r="6" spans="1:12" s="43" customFormat="1">
+      <c r="A6" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="38" t="s">
+      <c r="D6" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="40">
+        <v>2015</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="42"/>
+    </row>
+    <row r="7" spans="1:12" s="43" customFormat="1">
+      <c r="A7" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="40">
+        <v>2015</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42"/>
+    </row>
+    <row r="8" spans="1:12" s="67" customFormat="1">
+      <c r="A8" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="63">
+        <v>2014</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="1:12" s="43" customFormat="1">
+      <c r="A9" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="50">
+        <v>2014</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="43" customFormat="1">
+      <c r="A10" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="34">
+        <v>2013</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="1:12" s="49" customFormat="1" ht="25" customHeight="1">
+      <c r="A11" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37">
+        <v>2010</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="L3" s="29"/>
-    </row>
-    <row r="4" spans="1:12" s="49" customFormat="1">
-      <c r="A4" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="46">
-        <v>2018</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" s="48"/>
-    </row>
-    <row r="5" spans="1:12" s="49" customFormat="1">
-      <c r="A5" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="46">
-        <v>2015</v>
-      </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
-    </row>
-    <row r="6" spans="1:12" s="49" customFormat="1">
-      <c r="A6" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="46" t="s">
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="44"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="42"/>
+    </row>
+    <row r="13" spans="1:12" s="43" customFormat="1">
+      <c r="A13" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" s="43" customFormat="1">
+      <c r="A14" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="46">
-        <v>2015</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-    </row>
-    <row r="7" spans="1:12" s="49" customFormat="1">
-      <c r="A7" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="46">
-        <v>2015</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
-    </row>
-    <row r="8" spans="1:12" s="72" customFormat="1">
-      <c r="A8" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="68">
-        <v>2014</v>
-      </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71"/>
-    </row>
-    <row r="9" spans="1:12" s="49" customFormat="1">
-      <c r="A9" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="55">
-        <v>2014</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="57" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="49" customFormat="1">
-      <c r="A10" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="40">
-        <v>2013</v>
-      </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-    </row>
-    <row r="11" spans="1:12" s="54" customFormat="1" ht="25" customHeight="1">
-      <c r="A11" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43">
-        <v>2010</v>
-      </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
-    </row>
-    <row r="13" spans="1:12" s="49" customFormat="1">
-      <c r="A13" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" spans="1:12" s="49" customFormat="1">
-      <c r="A14" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
-    </row>
-    <row r="15" spans="1:12" s="49" customFormat="1">
-      <c r="A15" s="63" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+    </row>
+    <row r="15" spans="1:12" s="43" customFormat="1">
+      <c r="A15" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="48"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-    </row>
-    <row r="20" spans="1:12" s="18" customFormat="1">
-      <c r="A20" s="22"/>
-      <c r="F20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
+    </row>
+    <row r="20" spans="1:12" s="8" customFormat="1">
+      <c r="A20" s="13"/>
+      <c r="F20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="B22" s="59"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="54"/>
+      <c r="C22" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="B23" s="34"/>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="B24" s="33"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8895,71 +9069,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232E0569-CE7A-8D49-B218-09F735076CED}">
-  <dimension ref="A7:C13"/>
+  <dimension ref="A7:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="75" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" style="68" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="70" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:3" s="74" customFormat="1">
-      <c r="A7" s="74" t="s">
+    <row r="7" spans="1:3" s="69" customFormat="1">
+      <c r="A7" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="76"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="76"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="73" t="s">
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="76"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="74" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="73" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="73" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="73" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="73" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="76"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="77" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="73" t="s">
-        <v>131</v>
+      <c r="B13" s="78"/>
+      <c r="C13" s="29"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="54"/>
+      <c r="C19" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="27"/>
+      <c r="C20" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="25"/>
+      <c r="C21" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8D796B-7F89-E54A-8DFC-2721ED663FBA}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="D1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8968,375 +9175,400 @@
     <col min="2" max="2" width="14.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="64.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="20.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="80" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1">
-      <c r="A2" s="7" t="s">
+      <c r="F1" s="80" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1">
+      <c r="A2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="79">
         <v>53</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="79">
         <v>811</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="82">
         <f t="shared" ref="E2:E7" si="0">B2*C2</f>
         <v>42983</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="7" customFormat="1">
-      <c r="A3" s="7" t="s">
+      <c r="F2" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1">
+      <c r="A3" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="79">
         <v>3000</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="79">
         <v>426</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="82">
         <f t="shared" si="0"/>
         <v>1278000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="7" customFormat="1">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" s="4" customFormat="1">
+      <c r="A4" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="79">
         <v>1380</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="79">
         <v>1639</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="82">
         <f t="shared" si="0"/>
         <v>2261820</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="7" customFormat="1">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:6" s="4" customFormat="1">
+      <c r="A5" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="79">
         <v>208</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="79">
         <v>2000</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9">
+      <c r="D5" s="83"/>
+      <c r="E5" s="82">
         <f t="shared" si="0"/>
         <v>416000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="11" customFormat="1">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:6" s="5" customFormat="1">
+      <c r="A6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="26">
         <v>29</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="26">
         <v>19735</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="85">
         <f t="shared" si="0"/>
         <v>572315</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="7" customFormat="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:6" s="4" customFormat="1">
+      <c r="A7" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="79">
         <v>15</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="79">
         <v>295719</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="82">
         <f t="shared" si="0"/>
         <v>4435785</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="10">
         <v>3582</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="10">
         <v>945</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="86">
         <f t="shared" ref="E8:E12" si="1">B8*C8</f>
         <v>3384990</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="10">
         <v>6164</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="10">
         <v>152</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="86">
         <f t="shared" si="1"/>
         <v>936928</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="10">
         <v>4000</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="10">
         <v>128</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="86">
         <f t="shared" si="1"/>
         <v>512000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="10">
         <v>8236</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="10">
         <v>1024</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="86">
         <f t="shared" si="1"/>
         <v>8433664</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="10">
         <v>100</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="10">
         <v>1460</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="86">
         <f t="shared" si="1"/>
         <v>146000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="14" customFormat="1">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:6" s="6" customFormat="1">
+      <c r="A13" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="87">
         <v>119</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="87">
         <v>3000</v>
       </c>
-      <c r="E13" s="15">
+      <c r="D13" s="87"/>
+      <c r="E13" s="88">
         <f t="shared" ref="E13:E21" si="2">B13*C13</f>
         <v>357000</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="10">
         <v>600</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="10">
         <v>1500</v>
       </c>
-      <c r="E14" s="6">
+      <c r="D14" s="10"/>
+      <c r="E14" s="86">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="10">
         <v>52</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="10">
         <v>3850505</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="86">
         <f t="shared" si="2"/>
         <v>200226260</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="10">
         <v>12</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="10">
         <v>63000000</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="86">
         <f t="shared" si="2"/>
         <v>756000000</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="10">
         <v>86</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="10">
         <v>52854</v>
       </c>
-      <c r="E17" s="6">
+      <c r="D17" s="10"/>
+      <c r="E17" s="86">
         <f t="shared" si="2"/>
         <v>4545444</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:5" s="5" customFormat="1">
+      <c r="A18" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="26">
         <v>13</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="26">
         <v>43824</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="85">
         <f t="shared" si="2"/>
         <v>569712</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="10">
         <v>77</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="10">
         <v>140000</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="86">
         <f t="shared" si="2"/>
         <v>10780000</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="10">
         <v>13</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="10">
         <v>230318</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="86">
         <f t="shared" si="2"/>
         <v>2994134</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="10">
         <v>20</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="10">
         <v>4095000</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="86">
         <f t="shared" si="2"/>
         <v>81900000</v>
       </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="79"/>
+      <c r="C25" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="26"/>
+      <c r="C26" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="C27" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9362,125 +9594,128 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94416DE-30B7-E345-8186-BD11BDED46A2}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="18" customWidth="1"/>
-    <col min="3" max="4" width="12.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="12" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" customWidth="1"/>
+    <col min="3" max="4" width="12.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="2:6">
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="21"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="21" t="s">
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="21"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="21" t="s">
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="C4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="21"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="21" t="s">
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="C5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="21"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="21" t="s">
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="21">
+      <c r="C6" s="10">
         <v>0.95</v>
       </c>
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="21" t="s">
+      <c r="C7" s="54"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="C8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="21" t="s">
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="21">
+      <c r="C9" s="10">
         <v>100</v>
       </c>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="18" t="s">
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="2:6">
+      <c r="B15" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="18" t="s">
+      <c r="C15" s="8">
+        <v>1.63</v>
+      </c>
+      <c r="D15" s="8">
+        <v>4.76</v>
+      </c>
+      <c r="E15" s="8">
+        <v>5.0294999999999999E-2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>9.2800999999999995E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9494,408 +9729,408 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="18"/>
-    <col min="6" max="6" width="20.6640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="17.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="8"/>
+    <col min="6" max="6" width="20.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="12">
         <v>14</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="12">
         <v>0.95</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="12">
         <v>100</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="18">
+      <c r="A13" s="8">
         <v>1</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="8">
         <v>7.9</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="8">
         <v>6.61</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="8">
         <v>1.8269</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="8">
         <v>2.0186999999999999</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="8">
         <v>9.7799999999999994</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="8">
         <v>41.76</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="18">
+      <c r="A14" s="8">
         <v>2</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="8">
         <v>5.95</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="8">
         <v>0.68108999999999997</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="8">
         <v>0.80971000000000004</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="8">
         <v>15.5</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="8">
         <v>43.72</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="18">
+      <c r="A15" s="8">
         <v>3</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="8">
         <v>2.7</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="8">
         <v>5.67</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="8">
         <v>0.25777</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="8">
         <v>0.34228999999999998</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="8">
         <v>22.18</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="8">
         <v>51.27</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="18">
+      <c r="A16" s="8">
         <v>4</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="8">
         <v>2.0099999999999998</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="8">
         <v>5.17</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="8">
         <v>9.9419999999999994E-2</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="8">
         <v>0.15548000000000001</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="8">
         <v>27.83</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="8">
         <v>56.62</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="18">
+      <c r="A17" s="8">
         <v>5</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="8">
         <v>1.63</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="8">
         <v>4.76</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="8">
         <v>5.0294999999999999E-2</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="8">
         <v>9.2800999999999995E-2</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="8">
         <v>32.68</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="8">
         <v>60.77</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="18">
+      <c r="A18" s="8">
         <v>6</v>
       </c>
-      <c r="B18" s="18">
-        <v>1.35</v>
-      </c>
-      <c r="C18" s="18">
-        <v>4.41</v>
-      </c>
-      <c r="D18" s="18">
-        <v>2.0784E-2</v>
-      </c>
-      <c r="E18" s="18">
-        <v>5.1355999999999999E-2</v>
-      </c>
-      <c r="F18" s="18">
+      <c r="B18" s="8">
+        <v>1.63</v>
+      </c>
+      <c r="C18" s="8">
+        <v>4.76</v>
+      </c>
+      <c r="D18" s="8">
+        <v>5.0294999999999999E-2</v>
+      </c>
+      <c r="E18" s="8">
+        <v>9.2800999999999995E-2</v>
+      </c>
+      <c r="F18" s="8">
         <v>38.200000000000003</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="8">
         <v>65.73</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="18">
+      <c r="A19" s="8">
         <v>7</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="8">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="8">
         <v>4.25</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="8">
         <v>6.1311999999999998E-3</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="8">
         <v>2.7574000000000001E-2</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="8">
         <v>46.86</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="8">
         <v>73.39</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="18">
+      <c r="A20" s="8">
         <v>8</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="8">
         <v>1.01</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="8">
         <v>3.97</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="8">
         <v>2.0072E-2</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="8">
         <v>2.5839999999999999E-3</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="8">
         <v>51.94</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="8">
         <v>76.86</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="18">
+      <c r="A21" s="8">
         <v>10</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="8">
         <v>0.79</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="8">
         <v>3.5</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="8">
         <v>1.1377E-4</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="8">
         <v>1.2269E-2</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="8">
         <v>63.55</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="8">
         <v>87.43</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="18">
+      <c r="A22" s="8">
         <v>12</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="8">
         <v>0.67</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="8">
         <v>3.21</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="15">
         <v>2.9842000000000002E-6</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="8">
         <v>1.1161000000000001E-2</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="8">
         <v>73.540000000000006</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="8">
         <v>96.97</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="18">
+      <c r="A23" s="8">
         <v>15</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="8">
         <v>2.98</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="15">
         <v>2.0546999999999999E-37</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="8">
         <v>1.1062000000000001E-2</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="8">
         <v>96.11</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="8">
         <v>122.09</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="18">
+      <c r="A24" s="8">
         <v>20</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="8">
         <v>2.9750000000000001</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="15">
         <v>1.3004E-59</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="8">
         <v>1.1062000000000001E-2</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="8">
         <v>99.55</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="8">
         <v>125.54</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -9910,402 +10145,402 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:E57"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="27"/>
-    <col min="6" max="6" width="20.6640625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="27" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="27"/>
+    <col min="1" max="1" width="17.1640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="18"/>
+    <col min="6" max="6" width="20.6640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="17">
         <v>14</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="17">
         <v>6</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="17">
         <v>100</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="27">
+      <c r="A13" s="18">
         <v>0.5</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="18">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="18">
         <v>7.2</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="18">
         <v>2.2065000000000001E-2</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="18">
         <v>0.92091000000000001</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="18">
         <v>11.89</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="18">
         <v>24.34</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="27">
+      <c r="A14" s="18">
         <v>0.6</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="18">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="18">
         <v>7.6</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="18">
         <v>2.4503E-2</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="18">
         <v>0.71675999999999995</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="18">
         <v>12.44</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="18">
         <v>24.47</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="27">
+      <c r="A15" s="18">
         <v>0.7</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="18">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="18">
         <v>7.51</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="18">
         <v>2.1031000000000001E-2</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="18">
         <v>0.434</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="18">
         <v>12.03</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="18">
         <v>24.78</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="27">
+      <c r="A16" s="18">
         <v>0.8</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="18">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="18">
         <v>7.42</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="18">
         <v>3.5142E-2</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="18">
         <v>0.29855999999999999</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="18">
         <v>12.42</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="18">
         <v>26.22</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="27">
+      <c r="A17" s="18">
         <v>0.85</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="18">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="18">
         <v>7.33</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="18">
         <v>2.9465999999999999E-2</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="18">
         <v>0.21965000000000001</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="18">
         <v>12.8</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="18">
         <v>30.72</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="27">
+      <c r="A18" s="18">
         <v>0.9</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="18">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="18">
         <v>7.17</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="18">
         <v>2.5423999999999999E-2</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="18">
         <v>0.14649999999999999</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="18">
         <v>12.39</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="18">
         <v>29.87</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="27">
+      <c r="A19" s="18">
         <v>0.92500000000000004</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="18">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="18">
         <v>7.05</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="18">
         <v>2.5637E-2</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="18">
         <v>9.4978999999999994E-2</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="18">
         <v>12.58</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="18">
         <v>31.17</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="27">
+      <c r="A20" s="18">
         <v>0.95</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="18">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="18">
         <v>6.84</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="18">
         <v>3.2819000000000001E-2</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="18">
         <v>8.8696999999999998E-2</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="18">
         <v>13.01</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="18">
         <v>35.840000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="27">
+      <c r="A21" s="18">
         <v>0.96</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="18">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="18">
         <v>6.72</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="18">
         <v>2.7515999999999999E-2</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="18">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="18">
         <v>12.42</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="18">
         <v>37.61</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="27">
+      <c r="A22" s="18">
         <v>0.97</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="18">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="18">
         <v>6.53</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="18">
         <v>4.6115999999999997E-2</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="18">
         <v>6.5724000000000005E-2</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="18">
         <v>12.59</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="18">
         <v>41.45</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="27">
+      <c r="A23" s="18">
         <v>0.98</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="18">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="18">
         <v>6.25</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="18">
         <v>2.7421999999999998E-2</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="18">
         <v>4.6489999999999997E-2</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="18">
         <v>12.67</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="18">
         <v>47.64</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="27">
+      <c r="A24" s="18">
         <v>0.99</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="18">
         <v>1.2857000000000001</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="18">
         <v>5.7</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="18">
         <v>2.1876E-2</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="18">
         <v>2.9409999999999999E-2</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="18">
         <v>12.57</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="18">
         <v>62.2</v>
       </c>
     </row>
@@ -10320,246 +10555,246 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="27"/>
-    <col min="6" max="6" width="20.6640625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="27" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="27"/>
+    <col min="1" max="1" width="17.1640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="18"/>
+    <col min="6" max="6" width="20.6640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="19"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="17">
         <v>0.95</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="17">
         <v>6</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="17">
         <v>100</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="27">
+      <c r="A13" s="18">
         <v>10</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="18">
         <v>0.92</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="18">
         <v>4.5</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="18">
         <v>1.0464000000000001E-3</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="18">
         <v>4.8989999999999999E-2</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="18">
         <v>6.07</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="18">
         <v>15.23</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="27">
+      <c r="A14" s="18">
         <v>15</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="18">
         <v>1.34</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="18">
         <v>6.41</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="18">
         <v>6.4724000000000004E-2</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="18">
         <v>0.14524999999999999</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="18">
         <v>4.34</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="18">
         <v>9.8800000000000008</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="27">
+      <c r="A15" s="18">
         <v>20</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="18">
         <v>1.78</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="18">
         <v>8.33</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="18">
         <v>0.33555000000000001</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="18">
         <v>0.45044000000000001</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="18">
         <v>3.05</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="18">
         <v>7.95</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="27">
+      <c r="A16" s="18">
         <v>25</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="18">
         <v>2.11</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="18">
         <v>9.61</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="18">
         <v>0.68618999999999997</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="18">
         <v>0.76575000000000004</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="18">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="18">
         <v>5.57</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="27">
+      <c r="A17" s="18">
         <v>28</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="18">
         <v>9.91</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="18">
         <v>2.3199999999999998</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="18">
         <v>2.0217000000000001</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="18">
         <v>2.1930999999999998</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="18">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="18">
         <v>6.19</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="29"/>
+      <c r="A18" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
